--- a/Data/quarterly_charts_q2.xlsx
+++ b/Data/quarterly_charts_q2.xlsx
@@ -31,118 +31,118 @@
     <t>PRT</t>
   </si>
   <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>IDN</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>SVN</t>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>HUN</t>
   </si>
   <si>
     <t>SVK</t>
   </si>
   <si>
-    <t>GRC</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>AUT</t>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>NOR</t>
   </si>
   <si>
     <t>ISL</t>
   </si>
   <si>
-    <t>HUN</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>BGR</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
     <t>NLD</t>
   </si>
   <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
     <t>JPN</t>
   </si>
   <si>
+    <t>CAN</t>
+  </si>
+  <si>
     <t>RUS</t>
   </si>
   <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
     <t>CHE</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>SWE</t>
+    <t>LTU</t>
   </si>
   <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
     <t>NZL</t>
-  </si>
-  <si>
-    <t>LTU</t>
   </si>
   <si>
     <t>KOR</t>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-11.22793356781014</v>
+        <v>-11.62931723988299</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-9.730320352093925</v>
+        <v>-9.443983671296186</v>
       </c>
       <c r="C3">
         <v>-6.705916903468323</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.505578324426622</v>
+        <v>-9.42051520566527</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-9.448179887255614</v>
+        <v>-9.386452923479993</v>
       </c>
       <c r="C5">
         <v>-9.050878084740122</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-8.737071598399904</v>
+        <v>-8.759413485326172</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-8.66554687227733</v>
+        <v>-8.689475408548375</v>
+      </c>
+      <c r="C7">
+        <v>-7.84707947617539</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-8.345064878720986</v>
+        <v>-8.573945408142814</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,7 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-8.297719305484241</v>
+        <v>-7.760897079186735</v>
+      </c>
+      <c r="C9">
+        <v>-4.802211612131635</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-8.295022123191387</v>
+        <v>-7.572103120483254</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-7.895727679473286</v>
+        <v>-7.43224088683303</v>
       </c>
       <c r="C11">
-        <v>-4.802211612131635</v>
+        <v>-7.96889826777446</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.666684335505403</v>
+        <v>-7.304513067696739</v>
       </c>
       <c r="C12">
-        <v>-7.96889826777446</v>
+        <v>-5.776162846736188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-7.600445374137166</v>
+        <v>-7.272827089288869</v>
       </c>
       <c r="C13">
-        <v>-5.776162846736188</v>
+        <v>-5.674623568940529</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-7.59427870253332</v>
-      </c>
-      <c r="C14">
-        <v>-5.674623568940529</v>
+        <v>-7.255538551939312</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-7.452551667213802</v>
+        <v>-7.115896391005649</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-7.169360653332035</v>
+        <v>-6.586590940077219</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-6.325958025075118</v>
+        <v>-6.274339836635989</v>
       </c>
       <c r="C17">
         <v>-6.068979587928636</v>
@@ -686,7 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.021768348261913</v>
+        <v>-5.934507604941319</v>
+      </c>
+      <c r="C18">
+        <v>-4.39032411108543</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -694,10 +700,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-5.891042747172515</v>
-      </c>
-      <c r="C19">
-        <v>-4.39032411108543</v>
+        <v>-5.597204163025271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -705,7 +708,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.514981004103081</v>
+        <v>-5.48284944657953</v>
+      </c>
+      <c r="C20">
+        <v>-3.642415425883849</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-5.338921811808827</v>
+        <v>-5.481821026634249</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -721,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-5.140284269485884</v>
+        <v>-5.423570405613098</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -729,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-5.127914372395592</v>
+        <v>-4.841847242300235</v>
       </c>
       <c r="C23">
         <v>-4.399688968946858</v>
@@ -740,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-4.978462926393046</v>
+        <v>-4.696674315433791</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -748,7 +754,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-4.954214771631305</v>
+        <v>-4.649141635650933</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -756,10 +762,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-4.836939794439743</v>
-      </c>
-      <c r="C26">
-        <v>-3.642415425883849</v>
+        <v>-4.625725680430504</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -767,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-4.428477241660844</v>
+        <v>-4.317259248604999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -775,7 +778,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-4.416649095215186</v>
+        <v>-4.28722854452388</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -783,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-4.102426939669224</v>
+        <v>-4.201468126602803</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -791,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-3.804493851454893</v>
+        <v>-3.801274269610955</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -799,7 +802,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-3.794947902275936</v>
+        <v>-3.769036243770163</v>
+      </c>
+      <c r="C31">
+        <v>-3.637464569708415</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -807,10 +813,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-3.555771880786485</v>
-      </c>
-      <c r="C32">
-        <v>-3.637464569708415</v>
+        <v>-3.544592700658244</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -818,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-2.487915438183608</v>
+        <v>-2.729415515730038</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -826,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-2.097355433397186</v>
+        <v>-2.397838826154852</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -834,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-2.054623408509604</v>
+        <v>-2.247084968276447</v>
       </c>
       <c r="C35">
         <v>-1.962523374079961</v>
@@ -845,7 +848,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-2.026321137419063</v>
+        <v>-2.127754177276053</v>
       </c>
       <c r="C36">
         <v>-2.019518794234965</v>
@@ -856,7 +859,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-2.023669892041902</v>
+        <v>-1.949572214349393</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -864,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.917580301326782</v>
+        <v>-1.85113957219426</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -872,7 +875,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-1.747100181700378</v>
+        <v>-1.814913631434856</v>
+      </c>
+      <c r="C39">
+        <v>-1.302397166782543</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -880,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-1.722664449728251</v>
+        <v>-1.727481402885245</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -888,10 +894,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.673025377618864</v>
-      </c>
-      <c r="C41">
-        <v>-1.302397166782543</v>
+        <v>-1.499937008101981</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -899,7 +902,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.440244080340214</v>
+        <v>-1.030718090470983</v>
       </c>
       <c r="C42">
         <v>-1.502737866900294</v>
@@ -910,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.6646565188870412</v>
+        <v>-0.975364695330283</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -918,7 +921,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01185141579695959</v>
+        <v>-0.3039600013853394</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -926,7 +929,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.155739004401223</v>
+        <v>0.2724372421628374</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -934,7 +937,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>3.307239437528353</v>
+        <v>2.207542971944876</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_charts_q2.xlsx
+++ b/Data/quarterly_charts_q2.xlsx
@@ -31,42 +31,42 @@
     <t>PRT</t>
   </si>
   <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
     <t>SVN</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
     <t>COL</t>
   </si>
   <si>
     <t>IDN</t>
   </si>
   <si>
-    <t>CHL</t>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>GRC</t>
   </si>
   <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>GRC</t>
-  </si>
-  <si>
-    <t>CZE</t>
+    <t>AUT</t>
   </si>
   <si>
     <t>FRA</t>
   </si>
   <si>
-    <t>AUT</t>
+    <t>SVK</t>
   </si>
   <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>SVK</t>
-  </si>
-  <si>
     <t>GBR</t>
   </si>
   <si>
@@ -79,79 +79,79 @@
     <t>BRA</t>
   </si>
   <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
     <t>BEL</t>
   </si>
   <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>LVA</t>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
   <si>
     <t>BGR</t>
   </si>
   <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>ISL</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
     <t>DNK</t>
   </si>
   <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
     <t>LUX</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
-    <t>SWE</t>
-  </si>
-  <si>
     <t>ISR</t>
   </si>
   <si>
-    <t>CHE</t>
+    <t>KOR</t>
   </si>
   <si>
     <t>LTU</t>
   </si>
   <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>KOR</t>
+    <t>TUR</t>
   </si>
   <si>
     <t>AUS</t>
-  </si>
-  <si>
-    <t>TUR</t>
   </si>
   <si>
     <t>EST</t>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-11.62931723988299</v>
+        <v>-10.90686405556975</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-9.443983671296186</v>
+        <v>-10.00631973481597</v>
       </c>
       <c r="C3">
         <v>-6.705916903468323</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.42051520566527</v>
+        <v>-9.821405985367015</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-9.386452923479993</v>
+        <v>-9.72202064409271</v>
       </c>
       <c r="C5">
         <v>-9.050878084740122</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-8.759413485326172</v>
+        <v>-8.858641379375898</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-8.689475408548375</v>
-      </c>
-      <c r="C7">
-        <v>-7.84707947617539</v>
+        <v>-8.65453256491916</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-8.573945408142814</v>
+        <v>-8.616066790095367</v>
+      </c>
+      <c r="C8">
+        <v>-7.84707947617539</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-7.760897079186735</v>
+        <v>-8.35233676396131</v>
       </c>
       <c r="C9">
-        <v>-4.802211612131635</v>
+        <v>-7.96889826777446</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-7.572103120483254</v>
+        <v>-7.809548621554951</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-7.43224088683303</v>
+        <v>-7.618875437544936</v>
       </c>
       <c r="C11">
-        <v>-7.96889826777446</v>
+        <v>-4.802211612131635</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.304513067696739</v>
+        <v>-7.556790897206723</v>
       </c>
       <c r="C12">
-        <v>-5.776162846736188</v>
+        <v>-5.674623568940529</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-7.272827089288869</v>
+        <v>-7.542327457123344</v>
       </c>
       <c r="C13">
-        <v>-5.674623568940529</v>
+        <v>-5.776162846736188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-7.255538551939312</v>
+        <v>-7.526566372032962</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-7.115896391005649</v>
+        <v>-7.432838093993133</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-6.586590940077219</v>
+        <v>-6.54510869594035</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-6.274339836635989</v>
+        <v>-6.519488136909224</v>
       </c>
       <c r="C17">
         <v>-6.068979587928636</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-5.934507604941319</v>
+        <v>-5.931197167876922</v>
       </c>
       <c r="C18">
         <v>-4.39032411108543</v>
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-5.597204163025271</v>
+        <v>-5.584212037551572</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -708,10 +708,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.48284944657953</v>
-      </c>
-      <c r="C20">
-        <v>-3.642415425883849</v>
+        <v>-5.523185779491557</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -719,7 +716,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-5.481821026634249</v>
+        <v>-5.494121464420165</v>
+      </c>
+      <c r="C21">
+        <v>-4.399688968946858</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -727,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-5.423570405613098</v>
+        <v>-5.441039701920203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -735,10 +735,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-4.841847242300235</v>
-      </c>
-      <c r="C23">
-        <v>-4.399688968946858</v>
+        <v>-4.938048206070533</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-4.696674315433791</v>
+        <v>-4.830440701009541</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -754,7 +751,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-4.649141635650933</v>
+        <v>-4.763344084542154</v>
+      </c>
+      <c r="C25">
+        <v>-3.642415425883849</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-4.625725680430504</v>
+        <v>-4.702764227659683</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-4.317259248604999</v>
+        <v>-4.566837828106918</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +778,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-4.28722854452388</v>
+        <v>-4.291099212819205</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-4.201468126602803</v>
+        <v>-4.131795606043998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -794,7 +794,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-3.801274269610955</v>
+        <v>-3.523339099905343</v>
+      </c>
+      <c r="C30">
+        <v>-3.637464569708415</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -802,10 +805,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-3.769036243770163</v>
-      </c>
-      <c r="C31">
-        <v>-3.637464569708415</v>
+        <v>-3.519182141724819</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-3.544592700658244</v>
+        <v>-3.399534043707364</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -821,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-2.729415515730038</v>
+        <v>-3.224504669514161</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -829,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-2.397838826154852</v>
+        <v>-2.594382402076711</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -837,10 +837,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-2.247084968276447</v>
-      </c>
-      <c r="C35">
-        <v>-1.962523374079961</v>
+        <v>-2.287232340943079</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -848,7 +845,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-2.127754177276053</v>
+        <v>-2.174968495821739</v>
       </c>
       <c r="C36">
         <v>-2.019518794234965</v>
@@ -859,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.949572214349393</v>
+        <v>-2.035999138856537</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -867,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.85113957219426</v>
+        <v>-1.802506958406458</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -875,10 +872,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-1.814913631434856</v>
+        <v>-1.697383127242125</v>
       </c>
       <c r="C39">
-        <v>-1.302397166782543</v>
+        <v>-1.962523374079961</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -886,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-1.727481402885245</v>
+        <v>-1.571735217626313</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -894,7 +891,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.499937008101981</v>
+        <v>-1.449545853836931</v>
+      </c>
+      <c r="C41">
+        <v>-1.502737866900294</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -902,10 +902,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.030718090470983</v>
+        <v>-1.41983047438653</v>
       </c>
       <c r="C42">
-        <v>-1.502737866900294</v>
+        <v>-1.302397166782543</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -913,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.975364695330283</v>
+        <v>-1.291657982242211</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -921,7 +921,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.3039600013853394</v>
+        <v>-0.4333343457954886</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -929,7 +929,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.2724372421628374</v>
+        <v>1.156721591621834</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -937,7 +937,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>2.207542971944876</v>
+        <v>2.107559145385096</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_charts_q2.xlsx
+++ b/Data/quarterly_charts_q2.xlsx
@@ -25,37 +25,40 @@
     <t>country</t>
   </si>
   <si>
+    <t>PRT</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>PRT</t>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>COL</t>
   </si>
   <si>
     <t>CHL</t>
   </si>
   <si>
-    <t>ESP</t>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>ITA</t>
   </si>
   <si>
     <t>SVN</t>
   </si>
   <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>CZE</t>
+    <t>AUT</t>
   </si>
   <si>
     <t>GRC</t>
   </si>
   <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>AUT</t>
+    <t>HUN</t>
   </si>
   <si>
     <t>FRA</t>
@@ -64,79 +67,85 @@
     <t>SVK</t>
   </si>
   <si>
-    <t>HUN</t>
-  </si>
-  <si>
     <t>GBR</t>
   </si>
   <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
     <t>MEX</t>
   </si>
   <si>
-    <t>DEU</t>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>ZAF</t>
   </si>
   <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>POL</t>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>BGR</t>
   </si>
   <si>
     <t>LVA</t>
   </si>
   <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>BEL</t>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
   <si>
     <t>ROU</t>
   </si>
   <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>ISL</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>BGR</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
+    <t>LUX</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t>CHE</t>
   </si>
   <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>SWE</t>
+    <t>TUR</t>
   </si>
   <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>USA</t>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>LTU</t>
   </si>
   <si>
     <t>ISR</t>
@@ -145,19 +154,10 @@
     <t>KOR</t>
   </si>
   <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>AUS</t>
+    <t>IRL</t>
   </si>
   <si>
     <t>EST</t>
-  </si>
-  <si>
-    <t>IRL</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-10.90686405556975</v>
+        <v>-9.854497179860388</v>
+      </c>
+      <c r="C2">
+        <v>-6.705916903468323</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,10 +548,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-10.00631973481597</v>
-      </c>
-      <c r="C3">
-        <v>-6.705916903468323</v>
+        <v>-9.514391291566614</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,7 +556,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.821405985367015</v>
+        <v>-8.962275159214951</v>
+      </c>
+      <c r="C4">
+        <v>-7.84707947617539</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-9.72202064409271</v>
+        <v>-8.82852242831712</v>
       </c>
       <c r="C5">
         <v>-9.050878084740122</v>
@@ -575,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-8.858641379375898</v>
+        <v>-8.223296532158964</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-8.65453256491916</v>
+        <v>-8.023629324196158</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-8.616066790095367</v>
+        <v>-7.890792861327656</v>
       </c>
       <c r="C8">
-        <v>-7.84707947617539</v>
+        <v>-7.96889826777446</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-8.35233676396131</v>
+        <v>-7.745050437718593</v>
       </c>
       <c r="C9">
-        <v>-7.96889826777446</v>
+        <v>-4.802211612131635</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-7.809548621554951</v>
+        <v>-7.452357766814366</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-7.618875437544936</v>
+        <v>-7.35900235864666</v>
       </c>
       <c r="C11">
-        <v>-4.802211612131635</v>
+        <v>-5.674623568940529</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.556790897206723</v>
-      </c>
-      <c r="C12">
-        <v>-5.674623568940529</v>
+        <v>-7.298350812575349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-7.542327457123344</v>
-      </c>
-      <c r="C13">
-        <v>-5.776162846736188</v>
+        <v>-7.252708278543373</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-7.526566372032962</v>
+        <v>-7.231157961119283</v>
+      </c>
+      <c r="C14">
+        <v>-5.776162846736188</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-7.432838093993133</v>
+        <v>-7.215932671371994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-6.54510869594035</v>
+        <v>-6.391755152043666</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-6.519488136909224</v>
+        <v>-6.061722102545197</v>
       </c>
       <c r="C17">
-        <v>-6.068979587928636</v>
+        <v>-4.39032411108543</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-5.931197167876922</v>
-      </c>
-      <c r="C18">
-        <v>-4.39032411108543</v>
+        <v>-6.045220569830001</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,7 +697,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-5.584212037551572</v>
+        <v>-5.854063825575762</v>
+      </c>
+      <c r="C19">
+        <v>-6.068979587928636</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -708,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.523185779491557</v>
+        <v>-5.192964230468434</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -716,10 +716,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-5.494121464420165</v>
-      </c>
-      <c r="C21">
-        <v>-4.399688968946858</v>
+        <v>-4.677624793789692</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -727,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-5.441039701920203</v>
+        <v>-4.607351010852312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -735,7 +732,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-4.938048206070533</v>
+        <v>-4.503902134512305</v>
+      </c>
+      <c r="C23">
+        <v>-3.642415425883849</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-4.830440701009541</v>
+        <v>-4.338931342856034</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,10 +751,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-4.763344084542154</v>
-      </c>
-      <c r="C25">
-        <v>-3.642415425883849</v>
+        <v>-4.297249613562315</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-4.702764227659683</v>
+        <v>-4.138186234101737</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -770,7 +767,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-4.566837828106918</v>
+        <v>-4.078466865434183</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +775,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-4.291099212819205</v>
+        <v>-4.036094183298921</v>
+      </c>
+      <c r="C28">
+        <v>-4.399688968946858</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-4.131795606043998</v>
+        <v>-3.950396598335504</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -794,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-3.523339099905343</v>
+        <v>-3.895027536525131</v>
       </c>
       <c r="C30">
         <v>-3.637464569708415</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-3.519182141724819</v>
+        <v>-3.830821753853986</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-3.399534043707364</v>
+        <v>-3.798706979451216</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -821,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-3.224504669514161</v>
+        <v>-3.51173413602478</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -829,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-2.594382402076711</v>
+        <v>-3.033806125037375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -837,7 +837,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-2.287232340943079</v>
+        <v>-2.956640585530301</v>
+      </c>
+      <c r="C35">
+        <v>-2.019518794234965</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -845,10 +848,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-2.174968495821739</v>
-      </c>
-      <c r="C36">
-        <v>-2.019518794234965</v>
+        <v>-2.890523452779048</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -856,7 +856,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-2.035999138856537</v>
+        <v>-1.797853476194133</v>
+      </c>
+      <c r="C37">
+        <v>-1.962523374079961</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -864,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.802506958406458</v>
+        <v>-1.691842146552591</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -872,10 +875,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-1.697383127242125</v>
-      </c>
-      <c r="C39">
-        <v>-1.962523374079961</v>
+        <v>-1.136752179902112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -883,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-1.571735217626313</v>
+        <v>-1.131775294473836</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -891,10 +891,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.449545853836931</v>
-      </c>
-      <c r="C41">
-        <v>-1.502737866900294</v>
+        <v>-0.9010219901584127</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -902,7 +899,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.41983047438653</v>
+        <v>-0.7873698663894313</v>
       </c>
       <c r="C42">
         <v>-1.302397166782543</v>
@@ -913,7 +910,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-1.291657982242211</v>
+        <v>-0.6212445007525047</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -921,7 +918,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.4333343457954886</v>
+        <v>-0.5909518617484899</v>
+      </c>
+      <c r="C44">
+        <v>-1.502737866900294</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -929,7 +929,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1.156721591621834</v>
+        <v>1.717498203364709</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -937,7 +937,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>2.107559145385096</v>
+        <v>2.939477355203035</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_charts_q2.xlsx
+++ b/Data/quarterly_charts_q2.xlsx
@@ -25,139 +25,139 @@
     <t>country</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>PRT</t>
   </si>
   <si>
-    <t>IND</t>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>COL</t>
   </si>
   <si>
     <t>IDN</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
     <t>CZE</t>
   </si>
   <si>
+    <t>GRC</t>
+  </si>
+  <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>SVN</t>
-  </si>
-  <si>
     <t>AUT</t>
   </si>
   <si>
-    <t>GRC</t>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>SVK</t>
   </si>
   <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>SVK</t>
-  </si>
-  <si>
     <t>GBR</t>
   </si>
   <si>
+    <t>MEX</t>
+  </si>
+  <si>
     <t>DEU</t>
   </si>
   <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
     <t>ISL</t>
   </si>
   <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>BRA</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>NOR</t>
+    <t>CAN</t>
   </si>
   <si>
     <t>BGR</t>
   </si>
   <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
     <t>LUX</t>
   </si>
   <si>
-    <t>DNK</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>CHE</t>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>LTU</t>
   </si>
   <si>
     <t>TUR</t>
   </si>
   <si>
-    <t>NZL</t>
-  </si>
-  <si>
     <t>AUS</t>
   </si>
   <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>KOR</t>
+    <t>EST</t>
   </si>
   <si>
     <t>IRL</t>
-  </si>
-  <si>
-    <t>EST</t>
   </si>
 </sst>
 </file>
@@ -537,10 +537,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-9.854497179860388</v>
-      </c>
-      <c r="C2">
-        <v>-6.705916903468323</v>
+        <v>-10.90686405556975</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -548,7 +545,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-9.514391291566614</v>
+        <v>-10.00631973481597</v>
+      </c>
+      <c r="C3">
+        <v>-6.705916903468323</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,10 +556,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-8.962275159214951</v>
-      </c>
-      <c r="C4">
-        <v>-7.84707947617539</v>
+        <v>-9.821405985367015</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -567,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-8.82852242831712</v>
+        <v>-9.72202064409271</v>
       </c>
       <c r="C5">
         <v>-9.050878084740122</v>
@@ -578,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-8.223296532158964</v>
+        <v>-8.858641379375898</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -586,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-8.023629324196158</v>
+        <v>-8.65453256491916</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-7.890792861327656</v>
+        <v>-8.616066790095367</v>
       </c>
       <c r="C8">
-        <v>-7.96889826777446</v>
+        <v>-7.84707947617539</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-7.745050437718593</v>
+        <v>-8.35233676396131</v>
       </c>
       <c r="C9">
-        <v>-4.802211612131635</v>
+        <v>-7.96889826777446</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-7.452357766814366</v>
+        <v>-7.809548621554951</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-7.35900235864666</v>
+        <v>-7.618875437544936</v>
       </c>
       <c r="C11">
-        <v>-5.674623568940529</v>
+        <v>-4.802211612131635</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.298350812575349</v>
+        <v>-7.556790897206723</v>
+      </c>
+      <c r="C12">
+        <v>-5.674623568940529</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-7.252708278543373</v>
+        <v>-7.542327457123344</v>
+      </c>
+      <c r="C13">
+        <v>-5.776162846736188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-7.231157961119283</v>
-      </c>
-      <c r="C14">
-        <v>-5.776162846736188</v>
+        <v>-7.526566372032962</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-7.215932671371994</v>
+        <v>-7.432838093993133</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-6.391755152043666</v>
+        <v>-6.54510869594035</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-6.061722102545197</v>
+        <v>-6.519488136909224</v>
       </c>
       <c r="C17">
-        <v>-4.39032411108543</v>
+        <v>-6.068979587928636</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-6.045220569830001</v>
+        <v>-5.931197167876922</v>
+      </c>
+      <c r="C18">
+        <v>-4.39032411108543</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -697,10 +700,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-5.854063825575762</v>
-      </c>
-      <c r="C19">
-        <v>-6.068979587928636</v>
+        <v>-5.584212037551572</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -708,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.192964230468434</v>
+        <v>-5.523185779491557</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -716,7 +716,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-4.677624793789692</v>
+        <v>-5.494121464420165</v>
+      </c>
+      <c r="C21">
+        <v>-4.399688968946858</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -724,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-4.607351010852312</v>
+        <v>-5.441039701920203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -732,10 +735,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-4.503902134512305</v>
-      </c>
-      <c r="C23">
-        <v>-3.642415425883849</v>
+        <v>-4.938048206070533</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-4.338931342856034</v>
+        <v>-4.830440701009541</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,7 +751,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-4.297249613562315</v>
+        <v>-4.763344084542154</v>
+      </c>
+      <c r="C25">
+        <v>-3.642415425883849</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -759,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-4.138186234101737</v>
+        <v>-4.702764227659683</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -767,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-4.078466865434183</v>
+        <v>-4.566837828106918</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -775,10 +778,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-4.036094183298921</v>
-      </c>
-      <c r="C28">
-        <v>-4.399688968946858</v>
+        <v>-4.291099212819205</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-3.950396598335504</v>
+        <v>-4.131795606043998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -794,7 +794,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-3.895027536525131</v>
+        <v>-3.523339099905343</v>
       </c>
       <c r="C30">
         <v>-3.637464569708415</v>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-3.830821753853986</v>
+        <v>-3.519182141724819</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-3.798706979451216</v>
+        <v>-3.399534043707364</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -821,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-3.51173413602478</v>
+        <v>-3.224504669514161</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -829,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-3.033806125037375</v>
+        <v>-2.594382402076711</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -837,10 +837,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-2.956640585530301</v>
-      </c>
-      <c r="C35">
-        <v>-2.019518794234965</v>
+        <v>-2.287232340943079</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -848,7 +845,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-2.890523452779048</v>
+        <v>-2.174968495821739</v>
+      </c>
+      <c r="C36">
+        <v>-2.019518794234965</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -856,10 +856,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-1.797853476194133</v>
-      </c>
-      <c r="C37">
-        <v>-1.962523374079961</v>
+        <v>-2.035999138856537</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -867,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.691842146552591</v>
+        <v>-1.802506958406458</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -875,7 +872,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-1.136752179902112</v>
+        <v>-1.697383127242125</v>
+      </c>
+      <c r="C39">
+        <v>-1.962523374079961</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -883,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-1.131775294473836</v>
+        <v>-1.571735217626313</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -891,7 +891,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.9010219901584127</v>
+        <v>-1.449545853836931</v>
+      </c>
+      <c r="C41">
+        <v>-1.502737866900294</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -899,7 +902,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-0.7873698663894313</v>
+        <v>-1.41983047438653</v>
       </c>
       <c r="C42">
         <v>-1.302397166782543</v>
@@ -910,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.6212445007525047</v>
+        <v>-1.291657982242211</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -918,10 +921,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.5909518617484899</v>
-      </c>
-      <c r="C44">
-        <v>-1.502737866900294</v>
+        <v>-0.4333343457954886</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -929,7 +929,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1.717498203364709</v>
+        <v>1.156721591621834</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -937,7 +937,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>2.939477355203035</v>
+        <v>2.107559145385096</v>
       </c>
     </row>
   </sheetData>

--- a/Data/quarterly_charts_q2.xlsx
+++ b/Data/quarterly_charts_q2.xlsx
@@ -31,130 +31,130 @@
     <t>PRT</t>
   </si>
   <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
     <t>CHL</t>
   </si>
   <si>
-    <t>ESP</t>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>FRA</t>
   </si>
   <si>
     <t>SVN</t>
   </si>
   <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>GRC</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>FRA</t>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>MEX</t>
   </si>
   <si>
     <t>SVK</t>
   </si>
   <si>
+    <t>DEU</t>
+  </si>
+  <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>DEU</t>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>NLD</t>
   </si>
   <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>POL</t>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>NOR</t>
   </si>
   <si>
     <t>LVA</t>
   </si>
   <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>ISL</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>BGR</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
+    <t>NZL</t>
+  </si>
+  <si>
     <t>CHE</t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>USA</t>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>AUS</t>
   </si>
   <si>
     <t>ISR</t>
   </si>
   <si>
-    <t>KOR</t>
-  </si>
-  <si>
     <t>LTU</t>
   </si>
   <si>
+    <t>EST</t>
+  </si>
+  <si>
     <t>TUR</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>EST</t>
   </si>
   <si>
     <t>IRL</t>
@@ -537,7 +537,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-10.90686405556975</v>
+        <v>-13.24039988650362</v>
+      </c>
+      <c r="C2">
+        <v>-17.9902858714404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-10.00631973481597</v>
+        <v>-9.642106483715217</v>
       </c>
       <c r="C3">
-        <v>-6.705916903468323</v>
+        <v>-6.658937561387768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,7 +559,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.821405985367015</v>
+        <v>-9.287272943465929</v>
+      </c>
+      <c r="C4">
+        <v>-9.050878084740122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -564,10 +570,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-9.72202064409271</v>
-      </c>
-      <c r="C5">
-        <v>-9.050878084740122</v>
+        <v>-8.217864536079267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -575,7 +578,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-8.858641379375898</v>
+        <v>-7.993035266467896</v>
+      </c>
+      <c r="C6">
+        <v>-4.841664363087261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +589,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-8.65453256491916</v>
+        <v>-7.702792176189066</v>
+      </c>
+      <c r="C7">
+        <v>-5.674623568940529</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-8.616066790095367</v>
+        <v>-7.651726502234846</v>
       </c>
       <c r="C8">
-        <v>-7.84707947617539</v>
+        <v>-7.651239209584359</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-8.35233676396131</v>
+        <v>-7.599681709007344</v>
       </c>
       <c r="C9">
-        <v>-7.96889826777446</v>
+        <v>-7.84707947617539</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +622,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-7.809548621554951</v>
+        <v>-7.563845540718539</v>
+      </c>
+      <c r="C10">
+        <v>-4.38022196478255</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-7.618875437544936</v>
+        <v>-7.500929553326885</v>
       </c>
       <c r="C11">
-        <v>-4.802211612131635</v>
+        <v>-7.616319417211592</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.556790897206723</v>
+        <v>-7.441604156988868</v>
       </c>
       <c r="C12">
-        <v>-5.674623568940529</v>
+        <v>-5.687523956402341</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-7.542327457123344</v>
+        <v>-6.861590509058713</v>
       </c>
       <c r="C13">
-        <v>-5.776162846736188</v>
+        <v>-4.186394729307342</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +666,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-7.526566372032962</v>
+        <v>-6.201255352976731</v>
+      </c>
+      <c r="C14">
+        <v>-6.085271638273149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +677,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-7.432838093993133</v>
+        <v>-5.895203777230906</v>
+      </c>
+      <c r="C15">
+        <v>-5.589843737057598</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +688,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-6.54510869594035</v>
+        <v>-5.829596438676732</v>
+      </c>
+      <c r="C16">
+        <v>-5.632536117510901</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-6.519488136909224</v>
+        <v>-5.768001331127415</v>
       </c>
       <c r="C17">
-        <v>-6.068979587928636</v>
+        <v>-4.205983565924476</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-5.931197167876922</v>
+        <v>-5.700394739408232</v>
       </c>
       <c r="C18">
-        <v>-4.39032411108543</v>
+        <v>-4.257160617904043</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,7 +721,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-5.584212037551572</v>
+        <v>-5.599564766928133</v>
+      </c>
+      <c r="C19">
+        <v>-4.874265296837921</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -708,7 +732,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.523185779491557</v>
+        <v>-5.476669487547181</v>
+      </c>
+      <c r="C20">
+        <v>-4.774927388110017</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -716,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-5.494121464420165</v>
+        <v>-4.804907182849771</v>
       </c>
       <c r="C21">
-        <v>-4.399688968946858</v>
+        <v>-3.679673906177561</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -727,7 +754,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-5.441039701920203</v>
+        <v>-4.61369328178709</v>
+      </c>
+      <c r="C22">
+        <v>-3.32353484661696</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -735,7 +765,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-4.938048206070533</v>
+        <v>-4.55795902078262</v>
+      </c>
+      <c r="C23">
+        <v>-3.262947880594536</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +776,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-4.830440701009541</v>
+        <v>-4.453340073645418</v>
+      </c>
+      <c r="C24">
+        <v>-3.120413160565938</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,10 +787,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-4.763344084542154</v>
+        <v>-4.271453448789265</v>
       </c>
       <c r="C25">
-        <v>-3.642415425883849</v>
+        <v>-4.407889252127728</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +798,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-4.702764227659683</v>
+        <v>-4.032295845646527</v>
+      </c>
+      <c r="C26">
+        <v>-4.515600731387859</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -770,7 +809,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-4.566837828106918</v>
+        <v>-3.993083897697347</v>
+      </c>
+      <c r="C27">
+        <v>-3.401922510915756</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +820,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-4.291099212819205</v>
+        <v>-3.952926995677697</v>
+      </c>
+      <c r="C28">
+        <v>-3.797085187947369</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -786,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-4.131795606043998</v>
+        <v>-3.868028018660707</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -794,10 +839,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-3.523339099905343</v>
-      </c>
-      <c r="C30">
-        <v>-3.637464569708415</v>
+        <v>-3.730290003330738</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -805,7 +847,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-3.519182141724819</v>
+        <v>-3.203241173830218</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -813,7 +855,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-3.399534043707364</v>
+        <v>-2.880614663728664</v>
+      </c>
+      <c r="C32">
+        <v>-1.907443366164807</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -821,7 +866,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-3.224504669514161</v>
+        <v>-2.764155553414804</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -829,7 +874,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-2.594382402076711</v>
+        <v>-2.275442003087969</v>
+      </c>
+      <c r="C34">
+        <v>-0.6781648066380375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -837,7 +885,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-2.287232340943079</v>
+        <v>-1.969387941584499</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -845,10 +893,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-2.174968495821739</v>
+        <v>-1.804057003951565</v>
       </c>
       <c r="C36">
-        <v>-2.019518794234965</v>
+        <v>-1.830510167053956</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -856,7 +904,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-2.035999138856537</v>
+        <v>-1.640377759126921</v>
+      </c>
+      <c r="C37">
+        <v>-1.95024727735934</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -864,7 +915,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-1.802506958406458</v>
+        <v>-1.409301345924496</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -872,10 +923,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-1.697383127242125</v>
+        <v>-1.128799945645997</v>
       </c>
       <c r="C39">
-        <v>-1.962523374079961</v>
+        <v>-2.03244609225689</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -883,7 +934,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-1.571735217626313</v>
+        <v>-0.9321615322340771</v>
+      </c>
+      <c r="C40">
+        <v>-1.402928550063076</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -891,10 +945,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.449545853836931</v>
+        <v>-0.8217499621877566</v>
       </c>
       <c r="C41">
-        <v>-1.502737866900294</v>
+        <v>-1.786363450075068</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -902,10 +956,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-1.41983047438653</v>
+        <v>-0.2218560310316198</v>
       </c>
       <c r="C42">
-        <v>-1.302397166782543</v>
+        <v>-0.6699539797325182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -913,7 +967,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-1.291657982242211</v>
+        <v>0.2465756280901177</v>
+      </c>
+      <c r="C43">
+        <v>-0.6684792548672047</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -921,7 +978,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.4333343457954886</v>
+        <v>1.12731044053056</v>
+      </c>
+      <c r="C44">
+        <v>3.250783561628379</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -929,7 +989,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1.156721591621834</v>
+        <v>1.923674693274524</v>
+      </c>
+      <c r="C45">
+        <v>3.937652666845359</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -937,7 +1000,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>2.107559145385096</v>
+        <v>8.330708595228199</v>
+      </c>
+      <c r="C46">
+        <v>14.80887774701627</v>
       </c>
     </row>
   </sheetData>
